--- a/projects/nicegui_start_project/tests/english_excel.xlsx
+++ b/projects/nicegui_start_project/tests/english_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29580\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProgrammingProjects\PyCharmProjects\gui_start_project\gui_frontend\projects\nicegui_start_project\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8743AFBD-FB27-4350-88CC-45DBB094A132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEE31D-4B48-4876-B37A-EFDF681C1508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -405,6 +405,21 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/nicegui_start_project/tests/english_excel.xlsx
+++ b/projects/nicegui_start_project/tests/english_excel.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProgrammingProjects\PyCharmProjects\gui_start_project\gui_frontend\projects\nicegui_start_project\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEE31D-4B48-4876-B37A-EFDF681C1508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312FD632-6CFD-4F4E-A1B6-20FD445E3853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,15 +41,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苹果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>banana</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果,，""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -394,34 +396,34 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A53F5C-F6D7-4845-9321-B8851E15DDBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>